--- a/APF/QA/RA006/QAP001_APF_RA006_APF0504_Tab逾時閃爍機制.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0504_Tab逾時閃爍機制.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PIC2013\QA\速達3G\9.3 文件檢視記錄統計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1401" yWindow="275" windowWidth="10918" windowHeight="5616" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修訂履歷" sheetId="5" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="413">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2438,6 +2438,72 @@
   </si>
   <si>
     <t>強化</t>
+  </si>
+  <si>
+    <t>SA PM-2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信、傳勝、鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session Timeout時，若使用者切回該頁籤，以遮罩方式顯示提示訊息</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session Timeout時，若使用者切回該頁籤，顯示訊息，請參考APF NO 14001，並以遮罩方式顯示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO流程圖，應加入session refresh的作業流程</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計</t>
+  </si>
+  <si>
+    <t>考慮不足</t>
+  </si>
+  <si>
+    <t>如左列所示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模組Session timeout後，須另外處理，否則timeout後預設會導到登入頁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 點選功能清單開啟tab後，重置該模組timer，應為點選相同模組的功能清單，才會重置timer</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改5.3功能簡述的說明，改為點選相同模組的功能清單，才會重置timer</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>於備註說明，各模組自行設定session timeout處理頁，並在routing table註冊為預設顯示頁面</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4275,7 +4341,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="17" customWidth="1"/>
@@ -4302,7 +4368,7 @@
       <c r="E2" s="145"/>
       <c r="F2" s="145"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
@@ -4313,7 +4379,7 @@
       <c r="E3" s="145"/>
       <c r="F3" s="145"/>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
@@ -4324,7 +4390,7 @@
       <c r="E4" s="145"/>
       <c r="F4" s="145"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.399999999999999">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="16.5">
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4335,7 +4401,7 @@
       <c r="E5" s="147"/>
       <c r="F5" s="147"/>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="141" t="s">
         <v>56</v>
       </c>
@@ -4345,7 +4411,7 @@
       <c r="E6" s="142"/>
       <c r="F6" s="143"/>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.399999999999999">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4365,7 +4431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.399999999999999">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -4536,10 +4602,10 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="77" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="49" customWidth="1"/>
@@ -4560,7 +4626,7 @@
     <col min="23" max="16384" width="9" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:20" s="54" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="49"/>
       <c r="B1" s="50" t="s">
         <v>35</v>
@@ -4582,7 +4648,7 @@
       <c r="Q1" s="49"/>
       <c r="R1" s="49"/>
     </row>
-    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="2" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="55"/>
       <c r="B2" s="50" t="s">
         <v>36</v>
@@ -4604,7 +4670,7 @@
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
     </row>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.3" customHeight="1">
+    <row r="3" spans="1:20" s="59" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="55"/>
       <c r="B3" s="50" t="s">
         <v>37</v>
@@ -4626,7 +4692,7 @@
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
     </row>
-    <row r="4" spans="1:20" s="102" customFormat="1" ht="33.049999999999997" customHeight="1">
+    <row r="4" spans="1:20" s="102" customFormat="1" ht="33" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="50" t="s">
         <v>282</v>
@@ -4658,34 +4724,34 @@
       <c r="O4" s="62"/>
       <c r="P4" s="58"/>
     </row>
-    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.3" customHeight="1">
+    <row r="5" spans="1:20" s="102" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="62"/>
       <c r="B5" s="50" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>0.99999999999999645</v>
+        <v>16.333333333333329</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$27)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="110">
         <f ca="1">F5-G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="58"/>
@@ -4696,7 +4762,7 @@
       <c r="O5" s="62"/>
       <c r="P5" s="58"/>
     </row>
-    <row r="6" spans="1:20" s="58" customFormat="1" ht="49.1">
+    <row r="6" spans="1:20" s="58" customFormat="1" ht="33">
       <c r="A6" s="103" t="s">
         <v>38</v>
       </c>
@@ -4754,7 +4820,7 @@
       <c r="S6" s="107"/>
       <c r="T6" s="107"/>
     </row>
-    <row r="7" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="7" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A7" s="64" t="s">
         <v>380</v>
       </c>
@@ -4814,34 +4880,54 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A8" s="64" t="s">
         <v>380</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70" t="str">
+      <c r="C8" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="66">
+        <v>41603</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="66">
+        <v>41600</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J8" s="65">
+        <v>4</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="M8" s="70">
         <f>IF(C8="","",J8*(I8-H8)*24)</f>
-        <v/>
-      </c>
-      <c r="N8" s="63" t="str">
+        <v>15.333333333333332</v>
+      </c>
+      <c r="N8" s="63">
         <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
-        <v/>
-      </c>
-      <c r="O8" s="63" t="str">
+        <v>4</v>
+      </c>
+      <c r="O8" s="63">
         <f>IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="P8" s="71" t="str">
         <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
@@ -4853,7 +4939,7 @@
       </c>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="9" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A9" s="64"/>
       <c r="B9" s="1"/>
       <c r="C9" s="65"/>
@@ -4873,7 +4959,7 @@
       <c r="Q9" s="71"/>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A10" s="64"/>
       <c r="B10" s="1"/>
       <c r="C10" s="65"/>
@@ -4893,7 +4979,7 @@
       <c r="Q10" s="71"/>
       <c r="R10" s="74"/>
     </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A11" s="64"/>
       <c r="B11" s="1"/>
       <c r="C11" s="65"/>
@@ -4913,7 +4999,7 @@
       <c r="Q11" s="71"/>
       <c r="R11" s="74"/>
     </row>
-    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="12" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A12" s="64"/>
       <c r="B12" s="1" t="str">
         <f ca="1">IF(A12="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B12,,-1,,),OFFSET(B12,,-1,,)))</f>
@@ -4951,7 +5037,7 @@
       </c>
       <c r="R12" s="74"/>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="13" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A13" s="64"/>
       <c r="B13" s="1" t="str">
         <f ca="1">IF(A13="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B13,,-1,,),OFFSET(B13,,-1,,)))</f>
@@ -4989,7 +5075,7 @@
       </c>
       <c r="R13" s="74"/>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="14" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A14" s="64"/>
       <c r="B14" s="1" t="str">
         <f ca="1">IF(A14="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B14,,-1,,),OFFSET(B14,,-1,,)))</f>
@@ -5027,7 +5113,7 @@
       </c>
       <c r="R14" s="74"/>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="15" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A15" s="64"/>
       <c r="B15" s="1" t="str">
         <f ca="1">IF(A15="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B15,,-1,,),OFFSET(B15,,-1,,)))</f>
@@ -5065,7 +5151,7 @@
       </c>
       <c r="R15" s="74"/>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="16" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A16" s="64"/>
       <c r="B16" s="1" t="str">
         <f ca="1">IF(A16="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B16,,-1,,),OFFSET(B16,,-1,,)))</f>
@@ -5103,7 +5189,7 @@
       </c>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="17" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="1" t="str">
         <f ca="1">IF(A17="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B17,,-1,,),OFFSET(B17,,-1,,)))</f>
@@ -5141,7 +5227,7 @@
       </c>
       <c r="R17" s="74"/>
     </row>
-    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="18" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="1" t="str">
         <f ca="1">IF(A18="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B18,,-1,,),OFFSET(B18,,-1,,)))</f>
@@ -5179,7 +5265,7 @@
       </c>
       <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="19" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="1" t="str">
         <f ca="1">IF(A19="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B19,,-1,,),OFFSET(B19,,-1,,)))</f>
@@ -5217,7 +5303,7 @@
       </c>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="20" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="1" t="str">
         <f ca="1">IF(A20="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B20,,-1,,),OFFSET(B20,,-1,,)))</f>
@@ -5255,7 +5341,7 @@
       </c>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.399999999999999">
+    <row r="21" spans="1:18" s="55" customFormat="1" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="1" t="str">
         <f ca="1">IF(A21="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B21,,-1,,),OFFSET(B21,,-1,,)))</f>
@@ -5794,10 +5880,10 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.1" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.625" style="93" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="93" bestFit="1" customWidth="1"/>
@@ -5818,7 +5904,7 @@
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>10</v>
       </c>
@@ -5843,7 +5929,7 @@
       <c r="Q1" s="22"/>
       <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.8" customHeight="1">
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="57.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>262</v>
       </c>
@@ -5887,7 +5973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" ht="32.75">
+    <row r="3" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A3" s="40" t="s">
         <v>381</v>
       </c>
@@ -5977,19 +6063,37 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="63" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="91">
+        <v>41603</v>
+      </c>
+      <c r="I5" s="91">
+        <v>41603</v>
+      </c>
       <c r="J5" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K5" s="89" t="str">
         <f t="shared" si="1"/>
@@ -5997,22 +6101,38 @@
       </c>
       <c r="L5" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M5" s="90"/>
       <c r="N5" s="36"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="91"/>
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="16.5">
+      <c r="A6" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" s="91">
+        <v>41603</v>
+      </c>
       <c r="I6" s="91"/>
       <c r="J6" s="89" t="str">
         <f t="shared" si="0"/>
@@ -6020,11 +6140,11 @@
       </c>
       <c r="K6" s="89" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="L6" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M6" s="90"/>
       <c r="N6" s="36"/>
@@ -6032,18 +6152,36 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
+      <c r="A7" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="H7" s="91">
+        <v>41603</v>
+      </c>
+      <c r="I7" s="91">
+        <v>41603</v>
+      </c>
       <c r="J7" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K7" s="89" t="str">
         <f t="shared" si="1"/>
@@ -6051,26 +6189,44 @@
       </c>
       <c r="L7" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M7" s="90"/>
       <c r="N7" s="36"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="54" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="91">
+        <v>41603</v>
+      </c>
+      <c r="I8" s="91">
+        <v>41603</v>
+      </c>
       <c r="J8" s="89" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>V</v>
       </c>
       <c r="K8" s="89" t="str">
         <f t="shared" si="1"/>
@@ -6078,14 +6234,14 @@
       </c>
       <c r="L8" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M8" s="90"/>
       <c r="N8" s="36"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="9" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
@@ -6103,7 +6259,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -6121,7 +6277,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.399999999999999">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -6139,7 +6295,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -6157,7 +6313,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="13" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -6175,7 +6331,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -6193,7 +6349,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -6211,7 +6367,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -6229,7 +6385,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -6247,7 +6403,7 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="18" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="48"/>
@@ -6265,7 +6421,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="41"/>
       <c r="C19" s="48"/>
@@ -6283,7 +6439,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="48"/>
@@ -6301,7 +6457,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="41"/>
       <c r="C21" s="48"/>
@@ -6319,7 +6475,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
       <c r="C22" s="48"/>
@@ -6337,7 +6493,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="23" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="48"/>
@@ -6355,7 +6511,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="24" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="48"/>
@@ -6373,7 +6529,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="25" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A25" s="40"/>
       <c r="B25" s="41"/>
       <c r="C25" s="48"/>
@@ -6391,7 +6547,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="26" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="48"/>
@@ -6409,7 +6565,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="27" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A27" s="40"/>
       <c r="B27" s="41"/>
       <c r="C27" s="48"/>
@@ -6427,7 +6583,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="28" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="41"/>
       <c r="C28" s="48"/>
@@ -6454,7 +6610,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="29" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="41"/>
       <c r="C29" s="48"/>
@@ -6481,7 +6637,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
@@ -6508,7 +6664,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
@@ -6535,7 +6691,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
-    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
@@ -6562,7 +6718,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
     </row>
-    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="33" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="41"/>
       <c r="C33" s="48"/>
@@ -6589,7 +6745,7 @@
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
     </row>
-    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="34" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="41"/>
       <c r="C34" s="48"/>
@@ -6616,7 +6772,7 @@
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
     </row>
-    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="35" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="41"/>
       <c r="C35" s="48"/>
@@ -6643,7 +6799,7 @@
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
     </row>
-    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="36" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="41"/>
       <c r="C36" s="48"/>
@@ -6670,7 +6826,7 @@
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="37" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="41"/>
       <c r="C37" s="48"/>
@@ -6697,7 +6853,7 @@
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
     </row>
-    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="38" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="41"/>
       <c r="C38" s="48"/>
@@ -6724,7 +6880,7 @@
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
     </row>
-    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="39" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A39" s="47"/>
       <c r="B39" s="41"/>
       <c r="C39" s="48"/>
@@ -6751,7 +6907,7 @@
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="40" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A40" s="47"/>
       <c r="B40" s="41"/>
       <c r="C40" s="48"/>
@@ -6778,7 +6934,7 @@
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="41" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A41" s="47"/>
       <c r="B41" s="41"/>
       <c r="C41" s="48"/>
@@ -6805,7 +6961,7 @@
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="42" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A42" s="47"/>
       <c r="B42" s="41"/>
       <c r="C42" s="48"/>
@@ -6832,7 +6988,7 @@
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="43" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A43" s="47"/>
       <c r="B43" s="41"/>
       <c r="C43" s="48"/>
@@ -6859,7 +7015,7 @@
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="44" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A44" s="47"/>
       <c r="B44" s="41"/>
       <c r="C44" s="48"/>
@@ -6886,7 +7042,7 @@
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="45" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A45" s="47"/>
       <c r="B45" s="41"/>
       <c r="C45" s="48"/>
@@ -6913,7 +7069,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="46" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A46" s="47"/>
       <c r="B46" s="41"/>
       <c r="C46" s="48"/>
@@ -6940,7 +7096,7 @@
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
     </row>
-    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="47" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="41"/>
       <c r="C47" s="48"/>
@@ -6967,7 +7123,7 @@
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
     </row>
-    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="48" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A48" s="47"/>
       <c r="B48" s="41"/>
       <c r="C48" s="48"/>
@@ -6994,7 +7150,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
     </row>
-    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="49" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A49" s="47"/>
       <c r="B49" s="41"/>
       <c r="C49" s="48"/>
@@ -7021,7 +7177,7 @@
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
     </row>
-    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="50" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A50" s="47"/>
       <c r="B50" s="41"/>
       <c r="C50" s="48"/>
@@ -7048,7 +7204,7 @@
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
     </row>
-    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="51" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A51" s="47"/>
       <c r="B51" s="41"/>
       <c r="C51" s="48"/>
@@ -7075,7 +7231,7 @@
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
     </row>
-    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="52" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="86"/>
@@ -7095,7 +7251,7 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="53" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
@@ -7115,7 +7271,7 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
     </row>
-    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="54" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A54" s="86"/>
       <c r="B54" s="86"/>
       <c r="C54" s="86"/>
@@ -7135,7 +7291,7 @@
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
     </row>
-    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A55" s="86"/>
       <c r="B55" s="86"/>
       <c r="C55" s="86"/>
@@ -7155,7 +7311,7 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
     </row>
-    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A56" s="86"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86"/>
@@ -7175,7 +7331,7 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
-    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A57" s="86"/>
       <c r="B57" s="86"/>
       <c r="C57" s="86"/>
@@ -7195,7 +7351,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="58" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A58" s="86"/>
       <c r="B58" s="86"/>
       <c r="C58" s="86"/>
@@ -7215,7 +7371,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="59" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A59" s="86"/>
       <c r="B59" s="86"/>
       <c r="C59" s="86"/>
@@ -7235,7 +7391,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="60" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A60" s="86"/>
       <c r="B60" s="86"/>
       <c r="C60" s="86"/>
@@ -7255,7 +7411,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="61" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A61" s="86"/>
       <c r="B61" s="86"/>
       <c r="C61" s="86"/>
@@ -7275,7 +7431,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="62" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A62" s="86"/>
       <c r="B62" s="86"/>
       <c r="C62" s="86"/>
@@ -7295,7 +7451,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="63" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A63" s="86"/>
       <c r="B63" s="86"/>
       <c r="C63" s="86"/>
@@ -7315,7 +7471,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="64" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A64" s="86"/>
       <c r="B64" s="86"/>
       <c r="C64" s="86"/>
@@ -7335,7 +7491,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="65" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A65" s="86"/>
       <c r="B65" s="86"/>
       <c r="C65" s="86"/>
@@ -7355,7 +7511,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="66" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A66" s="86"/>
       <c r="B66" s="86"/>
       <c r="C66" s="86"/>
@@ -7375,7 +7531,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="67" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A67" s="86"/>
       <c r="B67" s="86"/>
       <c r="C67" s="86"/>
@@ -7395,7 +7551,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="68" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A68" s="86"/>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -7415,7 +7571,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="69" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A69" s="86"/>
       <c r="B69" s="86"/>
       <c r="C69" s="86"/>
@@ -7435,7 +7591,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="70" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A70" s="86"/>
       <c r="B70" s="86"/>
       <c r="C70" s="86"/>
@@ -7455,7 +7611,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="71" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A71" s="86"/>
       <c r="B71" s="86"/>
       <c r="C71" s="86"/>
@@ -7475,7 +7631,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="72" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A72" s="86"/>
       <c r="B72" s="86"/>
       <c r="C72" s="86"/>
@@ -7495,7 +7651,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="73" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A73" s="86"/>
       <c r="B73" s="86"/>
       <c r="C73" s="86"/>
@@ -7515,7 +7671,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="74" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
       <c r="C74" s="86"/>
@@ -7535,7 +7691,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="75" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A75" s="86"/>
       <c r="B75" s="86"/>
       <c r="C75" s="86"/>
@@ -7555,7 +7711,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="76" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A76" s="86"/>
       <c r="B76" s="86"/>
       <c r="C76" s="86"/>
@@ -7575,7 +7731,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="77" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A77" s="86"/>
       <c r="B77" s="86"/>
       <c r="C77" s="86"/>
@@ -7595,7 +7751,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="78" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A78" s="86"/>
       <c r="B78" s="86"/>
       <c r="C78" s="86"/>
@@ -7615,7 +7771,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="79" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="C79" s="86"/>
@@ -7635,7 +7791,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="80" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
@@ -7655,7 +7811,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="81" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A81" s="86"/>
       <c r="B81" s="86"/>
       <c r="C81" s="86"/>
@@ -7675,7 +7831,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="82" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="C82" s="86"/>
@@ -7695,7 +7851,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="83" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="C83" s="86"/>
@@ -7715,7 +7871,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="84" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A84" s="86"/>
       <c r="B84" s="86"/>
       <c r="C84" s="86"/>
@@ -7735,7 +7891,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="85" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A85" s="86"/>
       <c r="B85" s="86"/>
       <c r="C85" s="86"/>
@@ -7755,7 +7911,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="86" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A86" s="86"/>
       <c r="B86" s="86"/>
       <c r="C86" s="86"/>
@@ -7775,7 +7931,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="87" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -7795,7 +7951,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="88" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A88" s="86"/>
       <c r="B88" s="86"/>
       <c r="C88" s="86"/>
@@ -7815,7 +7971,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="89" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A89" s="86"/>
       <c r="B89" s="86"/>
       <c r="C89" s="86"/>
@@ -7835,7 +7991,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="90" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A90" s="86"/>
       <c r="B90" s="86"/>
       <c r="C90" s="86"/>
@@ -7855,7 +8011,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="91" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A91" s="86"/>
       <c r="B91" s="86"/>
       <c r="C91" s="86"/>
@@ -7875,7 +8031,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="92" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A92" s="86"/>
       <c r="B92" s="86"/>
       <c r="C92" s="86"/>
@@ -7895,7 +8051,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="93" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A93" s="86"/>
       <c r="B93" s="86"/>
       <c r="C93" s="86"/>
@@ -7915,7 +8071,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="94" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="C94" s="86"/>
@@ -7935,7 +8091,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="95" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="C95" s="86"/>
@@ -7955,7 +8111,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="96" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="C96" s="86"/>
@@ -7975,7 +8131,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="97" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="C97" s="86"/>
@@ -7995,7 +8151,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="98" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="C98" s="86"/>
@@ -8015,7 +8171,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="99" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A99" s="86"/>
       <c r="B99" s="86"/>
       <c r="C99" s="86"/>
@@ -8035,7 +8191,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="100" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A100" s="86"/>
       <c r="B100" s="86"/>
       <c r="C100" s="86"/>
@@ -8055,7 +8211,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="101" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A101" s="86"/>
       <c r="B101" s="86"/>
       <c r="C101" s="86"/>
@@ -8075,7 +8231,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="102" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A102" s="86"/>
       <c r="B102" s="86"/>
       <c r="C102" s="86"/>
@@ -8095,7 +8251,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="103" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A103" s="86"/>
       <c r="B103" s="86"/>
       <c r="C103" s="86"/>
@@ -8115,7 +8271,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
     </row>
-    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="104" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A104" s="86"/>
       <c r="B104" s="86"/>
       <c r="C104" s="86"/>
@@ -8135,7 +8291,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
     </row>
-    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="105" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A105" s="86"/>
       <c r="B105" s="86"/>
       <c r="C105" s="86"/>
@@ -8155,7 +8311,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.1" customHeight="1">
+    <row r="106" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A106" s="86"/>
       <c r="B106" s="86"/>
       <c r="C106" s="86"/>
@@ -8175,25 +8331,25 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
     </row>
-    <row r="107" spans="1:18" ht="31.1" customHeight="1">
+    <row r="107" spans="1:18" ht="31.15" customHeight="1">
       <c r="I107" s="88"/>
     </row>
-    <row r="108" spans="1:18" ht="31.1" customHeight="1">
+    <row r="108" spans="1:18" ht="31.15" customHeight="1">
       <c r="I108" s="88"/>
     </row>
-    <row r="109" spans="1:18" ht="31.1" customHeight="1">
+    <row r="109" spans="1:18" ht="31.15" customHeight="1">
       <c r="I109" s="88"/>
     </row>
-    <row r="110" spans="1:18" ht="31.1" customHeight="1">
+    <row r="110" spans="1:18" ht="31.15" customHeight="1">
       <c r="I110" s="88"/>
     </row>
-    <row r="111" spans="1:18" ht="31.1" customHeight="1">
+    <row r="111" spans="1:18" ht="31.15" customHeight="1">
       <c r="I111" s="88"/>
     </row>
-    <row r="112" spans="1:18" ht="31.1" customHeight="1">
+    <row r="112" spans="1:18" ht="31.15" customHeight="1">
       <c r="I112" s="88"/>
     </row>
-    <row r="113" spans="9:9" ht="31.1" customHeight="1">
+    <row r="113" spans="9:9" ht="31.15" customHeight="1">
       <c r="I113" s="88"/>
     </row>
   </sheetData>
@@ -8238,7 +8394,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.25" style="116" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="116" customWidth="1"/>
@@ -8274,7 +8430,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.1">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="139" t="s">
         <v>357</v>
       </c>
@@ -8297,7 +8453,7 @@
       </c>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="32.75">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="138" t="s">
         <v>354</v>
       </c>
@@ -8320,7 +8476,7 @@
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="32.75">
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="139" t="s">
         <v>377</v>
       </c>
@@ -8343,7 +8499,7 @@
       </c>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="49.1">
+    <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="139" t="s">
         <v>355</v>
       </c>
@@ -8365,7 +8521,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="49.1">
+    <row r="6" spans="1:9" ht="49.5">
       <c r="A6" s="139" t="s">
         <v>356</v>
       </c>
@@ -8387,7 +8543,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="49.1">
+    <row r="7" spans="1:9" ht="49.5">
       <c r="A7" s="139" t="s">
         <v>358</v>
       </c>
@@ -8431,7 +8587,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.1">
+    <row r="9" spans="1:9" ht="49.5">
       <c r="A9" s="139" t="s">
         <v>360</v>
       </c>
@@ -8599,7 +8755,7 @@
       <selection pane="bottomRight" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="27" customWidth="1"/>
@@ -8636,7 +8792,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A2" s="30" t="s">
         <v>247</v>
       </c>
@@ -8658,7 +8814,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A3" s="30" t="s">
         <v>247</v>
       </c>
@@ -8680,7 +8836,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A4" s="30" t="s">
         <v>247</v>
       </c>
@@ -8702,7 +8858,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A5" s="30" t="s">
         <v>247</v>
       </c>
@@ -8724,7 +8880,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A6" s="30" t="s">
         <v>247</v>
       </c>
@@ -8746,7 +8902,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
@@ -8768,7 +8924,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="8" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A8" s="30" t="s">
         <v>247</v>
       </c>
@@ -8790,7 +8946,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A9" s="30" t="s">
         <v>247</v>
       </c>
@@ -8812,7 +8968,7 @@
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A10" s="30" t="s">
         <v>247</v>
       </c>
@@ -8834,7 +8990,7 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A11" s="30" t="s">
         <v>247</v>
       </c>
@@ -8853,7 +9009,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A12" s="30" t="s">
         <v>247</v>
       </c>
@@ -8875,7 +9031,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A13" s="30" t="s">
         <v>247</v>
       </c>
@@ -8897,7 +9053,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A14" s="30" t="s">
         <v>247</v>
       </c>
@@ -8919,7 +9075,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A15" s="30" t="s">
         <v>247</v>
       </c>
@@ -8941,7 +9097,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A16" s="30" t="s">
         <v>247</v>
       </c>
@@ -8963,7 +9119,7 @@
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A17" s="30" t="s">
         <v>247</v>
       </c>
@@ -8985,7 +9141,7 @@
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A18" s="30" t="s">
         <v>247</v>
       </c>
@@ -9007,7 +9163,7 @@
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="19" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A19" s="30" t="s">
         <v>247</v>
       </c>
@@ -9026,7 +9182,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A20" s="30" t="s">
         <v>247</v>
       </c>
@@ -9045,7 +9201,7 @@
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A21" s="30" t="s">
         <v>247</v>
       </c>
@@ -9067,7 +9223,7 @@
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A22" s="30" t="s">
         <v>247</v>
       </c>
@@ -9089,7 +9245,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A23" s="30" t="s">
         <v>247</v>
       </c>
@@ -9111,7 +9267,7 @@
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A24" s="30" t="s">
         <v>247</v>
       </c>
@@ -9199,7 +9355,7 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A28" s="30" t="s">
         <v>247</v>
       </c>
@@ -9265,7 +9421,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A31" s="30" t="s">
         <v>247</v>
       </c>
@@ -9353,7 +9509,7 @@
       <c r="K34" s="28"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="35" spans="1:12" s="23" customFormat="1">
       <c r="A35" s="30" t="s">
         <v>247</v>
       </c>
@@ -9375,7 +9531,7 @@
       <c r="K35" s="28"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="36" spans="1:12" s="23" customFormat="1">
       <c r="A36" s="30" t="s">
         <v>247</v>
       </c>
@@ -9397,7 +9553,7 @@
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12" ht="32.75">
+    <row r="37" spans="1:12">
       <c r="A37" s="30" t="s">
         <v>247</v>
       </c>
@@ -9412,7 +9568,7 @@
       </c>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:12" ht="32.75">
+    <row r="38" spans="1:12">
       <c r="A38" s="30" t="s">
         <v>247</v>
       </c>
@@ -9427,7 +9583,7 @@
       </c>
       <c r="E38" s="26"/>
     </row>
-    <row r="39" spans="1:12" ht="32.75">
+    <row r="39" spans="1:12">
       <c r="A39" s="30" t="s">
         <v>247</v>
       </c>
@@ -9442,7 +9598,7 @@
       </c>
       <c r="E39" s="26"/>
     </row>
-    <row r="40" spans="1:12" ht="32.75">
+    <row r="40" spans="1:12">
       <c r="A40" s="30" t="s">
         <v>247</v>
       </c>
@@ -9458,7 +9614,7 @@
       <c r="E40" s="26"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:12" ht="32.75">
+    <row r="41" spans="1:12">
       <c r="A41" s="30" t="s">
         <v>247</v>
       </c>
@@ -9473,7 +9629,7 @@
       </c>
       <c r="E41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="32.75">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="30" t="s">
         <v>247</v>
       </c>
@@ -9488,7 +9644,7 @@
       </c>
       <c r="E42" s="26"/>
     </row>
-    <row r="43" spans="1:12" ht="32.75">
+    <row r="43" spans="1:12">
       <c r="A43" s="30" t="s">
         <v>247</v>
       </c>
@@ -9503,7 +9659,7 @@
       </c>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:12" ht="32.75">
+    <row r="44" spans="1:12">
       <c r="A44" s="30" t="s">
         <v>247</v>
       </c>
@@ -9518,7 +9674,7 @@
       </c>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:12" ht="32.75">
+    <row r="45" spans="1:12">
       <c r="A45" s="30" t="s">
         <v>247</v>
       </c>
@@ -9533,7 +9689,7 @@
       </c>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="32.75">
+    <row r="46" spans="1:12">
       <c r="A46" s="30" t="s">
         <v>247</v>
       </c>
@@ -9615,7 +9771,7 @@
       </c>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:12" ht="32.75">
+    <row r="51" spans="1:12">
       <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
@@ -9660,7 +9816,7 @@
       </c>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:12" ht="32.75">
+    <row r="54" spans="1:12" ht="33">
       <c r="A54" s="30" t="s">
         <v>247</v>
       </c>
@@ -9761,7 +9917,7 @@
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="60" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A60" s="30" t="s">
         <v>247</v>
       </c>
@@ -9824,7 +9980,7 @@
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="63" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A63" s="30" t="s">
         <v>247</v>
       </c>
@@ -9846,7 +10002,7 @@
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" s="23" customFormat="1" ht="32.75">
+    <row r="64" spans="1:12" s="23" customFormat="1" ht="33">
       <c r="A64" s="30" t="s">
         <v>247</v>
       </c>
@@ -9981,7 +10137,7 @@
       </c>
       <c r="E71" s="26"/>
     </row>
-    <row r="72" spans="1:12" ht="32.75">
+    <row r="72" spans="1:12">
       <c r="A72" s="30" t="s">
         <v>247</v>
       </c>
@@ -9996,7 +10152,7 @@
       </c>
       <c r="E72" s="26"/>
     </row>
-    <row r="73" spans="1:12" ht="32.75">
+    <row r="73" spans="1:12">
       <c r="A73" s="30" t="s">
         <v>247</v>
       </c>
@@ -10018,7 +10174,7 @@
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
-    <row r="74" spans="1:12" ht="32.75">
+    <row r="74" spans="1:12">
       <c r="A74" s="30" t="s">
         <v>247</v>
       </c>
@@ -10137,7 +10293,7 @@
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="32.75" hidden="1">
+    <row r="80" spans="1:12" ht="33" hidden="1">
       <c r="A80" s="30" t="s">
         <v>248</v>
       </c>
@@ -10159,7 +10315,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
     </row>
-    <row r="81" spans="1:12" ht="49.1" hidden="1">
+    <row r="81" spans="1:12" ht="33" hidden="1">
       <c r="A81" s="30" t="s">
         <v>248</v>
       </c>
@@ -10181,7 +10337,7 @@
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
     </row>
-    <row r="82" spans="1:12" ht="98.2" hidden="1">
+    <row r="82" spans="1:12" ht="99" hidden="1">
       <c r="A82" s="30" t="s">
         <v>248</v>
       </c>
@@ -10203,7 +10359,7 @@
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
     </row>
-    <row r="83" spans="1:12" ht="32.75" hidden="1">
+    <row r="83" spans="1:12" ht="33" hidden="1">
       <c r="A83" s="30" t="s">
         <v>248</v>
       </c>
@@ -10219,7 +10375,7 @@
       <c r="E83" s="26"/>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="1:12" ht="32.75" hidden="1">
+    <row r="84" spans="1:12" hidden="1">
       <c r="A84" s="30" t="s">
         <v>248</v>
       </c>
@@ -10235,7 +10391,7 @@
       <c r="E84" s="26"/>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="1:12" ht="32.75" hidden="1">
+    <row r="85" spans="1:12" ht="33" hidden="1">
       <c r="A85" s="30" t="s">
         <v>248</v>
       </c>
@@ -10251,7 +10407,7 @@
       <c r="E85" s="26"/>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="1:12" ht="32.75" hidden="1">
+    <row r="86" spans="1:12" ht="33" hidden="1">
       <c r="A86" s="30" t="s">
         <v>248</v>
       </c>
@@ -10273,7 +10429,7 @@
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
     </row>
-    <row r="87" spans="1:12" ht="32.75" hidden="1">
+    <row r="87" spans="1:12" ht="33" hidden="1">
       <c r="A87" s="30" t="s">
         <v>248</v>
       </c>
@@ -10295,7 +10451,7 @@
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
     </row>
-    <row r="88" spans="1:12" ht="32.75" hidden="1">
+    <row r="88" spans="1:12" ht="33" hidden="1">
       <c r="A88" s="30" t="s">
         <v>248</v>
       </c>
@@ -10317,7 +10473,7 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" spans="1:12" ht="32.75" hidden="1">
+    <row r="89" spans="1:12" ht="33" hidden="1">
       <c r="A89" s="30" t="s">
         <v>248</v>
       </c>
@@ -10339,7 +10495,7 @@
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
     </row>
-    <row r="90" spans="1:12" ht="32.75" hidden="1">
+    <row r="90" spans="1:12" ht="33" hidden="1">
       <c r="A90" s="30" t="s">
         <v>248</v>
       </c>
@@ -10361,7 +10517,7 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" spans="1:12" ht="32.75" hidden="1">
+    <row r="91" spans="1:12" ht="33" hidden="1">
       <c r="A91" s="30" t="s">
         <v>248</v>
       </c>
@@ -10383,7 +10539,7 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" spans="1:12" ht="32.75" hidden="1">
+    <row r="92" spans="1:12" ht="33" hidden="1">
       <c r="A92" s="30" t="s">
         <v>248</v>
       </c>
@@ -10405,7 +10561,7 @@
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" spans="1:12" ht="65.45" hidden="1">
+    <row r="93" spans="1:12" ht="66" hidden="1">
       <c r="A93" s="30" t="s">
         <v>248</v>
       </c>
@@ -10427,7 +10583,7 @@
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="94" spans="1:12" ht="66" hidden="1">
       <c r="A94" s="30" t="s">
         <v>248</v>
       </c>
@@ -10449,7 +10605,7 @@
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
     </row>
-    <row r="95" spans="1:12" ht="114.55" hidden="1">
+    <row r="95" spans="1:12" ht="82.5" hidden="1">
       <c r="A95" s="30" t="s">
         <v>248</v>
       </c>
@@ -10471,7 +10627,7 @@
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
     </row>
-    <row r="96" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="96" spans="1:12" ht="66" hidden="1">
       <c r="A96" s="30" t="s">
         <v>248</v>
       </c>
@@ -10493,7 +10649,7 @@
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
     </row>
-    <row r="97" spans="1:12" ht="81.849999999999994" hidden="1">
+    <row r="97" spans="1:12" ht="66" hidden="1">
       <c r="A97" s="30" t="s">
         <v>248</v>
       </c>
@@ -10515,7 +10671,7 @@
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
     </row>
-    <row r="98" spans="1:12" ht="65.45" hidden="1">
+    <row r="98" spans="1:12" ht="49.5" hidden="1">
       <c r="A98" s="30" t="s">
         <v>248</v>
       </c>
@@ -10537,7 +10693,7 @@
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
     </row>
-    <row r="99" spans="1:12" ht="65.45" hidden="1">
+    <row r="99" spans="1:12" ht="66" hidden="1">
       <c r="A99" s="30" t="s">
         <v>248</v>
       </c>
@@ -10559,7 +10715,7 @@
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
     </row>
-    <row r="100" spans="1:12" ht="32.75" hidden="1">
+    <row r="100" spans="1:12" hidden="1">
       <c r="A100" s="30" t="s">
         <v>248</v>
       </c>
@@ -10581,7 +10737,7 @@
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
     </row>
-    <row r="101" spans="1:12" ht="65.45" hidden="1">
+    <row r="101" spans="1:12" ht="49.5" hidden="1">
       <c r="A101" s="30" t="s">
         <v>248</v>
       </c>
@@ -10603,7 +10759,7 @@
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
     </row>
-    <row r="102" spans="1:12" ht="65.45" hidden="1">
+    <row r="102" spans="1:12" ht="49.5" hidden="1">
       <c r="A102" s="30" t="s">
         <v>248</v>
       </c>
@@ -10625,7 +10781,7 @@
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
     </row>
-    <row r="103" spans="1:12" ht="49.1" hidden="1">
+    <row r="103" spans="1:12" ht="33" hidden="1">
       <c r="A103" s="30" t="s">
         <v>248</v>
       </c>
@@ -10647,7 +10803,7 @@
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
     </row>
-    <row r="104" spans="1:12" ht="32.75" hidden="1">
+    <row r="104" spans="1:12" ht="33" hidden="1">
       <c r="A104" s="30" t="s">
         <v>248</v>
       </c>
@@ -10685,7 +10841,7 @@
       <c r="E105" s="26"/>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="1:12" ht="49.1" hidden="1">
+    <row r="106" spans="1:12" ht="49.5" hidden="1">
       <c r="A106" s="30" t="s">
         <v>248</v>
       </c>
@@ -10795,7 +10951,7 @@
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
     </row>
-    <row r="111" spans="1:12" ht="163.65" hidden="1">
+    <row r="111" spans="1:12" ht="165" hidden="1">
       <c r="A111" s="30" t="s">
         <v>249</v>
       </c>
@@ -10810,7 +10966,7 @@
       </c>
       <c r="E111" s="26"/>
     </row>
-    <row r="112" spans="1:12" ht="32.75" hidden="1">
+    <row r="112" spans="1:12" ht="33" hidden="1">
       <c r="A112" s="30" t="s">
         <v>249</v>
       </c>
@@ -10825,7 +10981,7 @@
       </c>
       <c r="E112" s="26"/>
     </row>
-    <row r="113" spans="1:5" ht="32.75" hidden="1">
+    <row r="113" spans="1:5" ht="33" hidden="1">
       <c r="A113" s="30" t="s">
         <v>249</v>
       </c>
@@ -10840,7 +10996,7 @@
       </c>
       <c r="E113" s="26"/>
     </row>
-    <row r="114" spans="1:5" ht="32.75" hidden="1">
+    <row r="114" spans="1:5" ht="33" hidden="1">
       <c r="A114" s="30" t="s">
         <v>249</v>
       </c>
@@ -10855,7 +11011,7 @@
       </c>
       <c r="E114" s="26"/>
     </row>
-    <row r="115" spans="1:5" ht="32.75" hidden="1">
+    <row r="115" spans="1:5" ht="33" hidden="1">
       <c r="A115" s="30" t="s">
         <v>249</v>
       </c>
@@ -10870,7 +11026,7 @@
       </c>
       <c r="E115" s="26"/>
     </row>
-    <row r="116" spans="1:5" ht="32.75" hidden="1">
+    <row r="116" spans="1:5" ht="33" hidden="1">
       <c r="A116" s="30" t="s">
         <v>249</v>
       </c>
@@ -10885,7 +11041,7 @@
       </c>
       <c r="E116" s="26"/>
     </row>
-    <row r="117" spans="1:5" ht="32.75" hidden="1">
+    <row r="117" spans="1:5" ht="33" hidden="1">
       <c r="A117" s="30" t="s">
         <v>249</v>
       </c>
@@ -10900,7 +11056,7 @@
       </c>
       <c r="E117" s="26"/>
     </row>
-    <row r="118" spans="1:5" ht="32.75" hidden="1">
+    <row r="118" spans="1:5" ht="33" hidden="1">
       <c r="A118" s="30" t="s">
         <v>249</v>
       </c>
@@ -10915,7 +11071,7 @@
       </c>
       <c r="E118" s="26"/>
     </row>
-    <row r="119" spans="1:5" ht="65.45" hidden="1">
+    <row r="119" spans="1:5" ht="66" hidden="1">
       <c r="A119" s="30" t="s">
         <v>249</v>
       </c>
@@ -10930,7 +11086,7 @@
       </c>
       <c r="E119" s="26"/>
     </row>
-    <row r="120" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="120" spans="1:5" ht="66" hidden="1">
       <c r="A120" s="30" t="s">
         <v>249</v>
       </c>
@@ -10945,7 +11101,7 @@
       </c>
       <c r="E120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="114.55" hidden="1">
+    <row r="121" spans="1:5" ht="82.5" hidden="1">
       <c r="A121" s="30" t="s">
         <v>249</v>
       </c>
@@ -10960,7 +11116,7 @@
       </c>
       <c r="E121" s="26"/>
     </row>
-    <row r="122" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="122" spans="1:5" ht="66" hidden="1">
       <c r="A122" s="30" t="s">
         <v>249</v>
       </c>
@@ -10975,7 +11131,7 @@
       </c>
       <c r="E122" s="26"/>
     </row>
-    <row r="123" spans="1:5" ht="65.45" hidden="1">
+    <row r="123" spans="1:5" ht="49.5" hidden="1">
       <c r="A123" s="30" t="s">
         <v>249</v>
       </c>
@@ -10990,7 +11146,7 @@
       </c>
       <c r="E123" s="26"/>
     </row>
-    <row r="124" spans="1:5" ht="65.45" hidden="1">
+    <row r="124" spans="1:5" ht="49.5" hidden="1">
       <c r="A124" s="30" t="s">
         <v>249</v>
       </c>
@@ -11005,7 +11161,7 @@
       </c>
       <c r="E124" s="26"/>
     </row>
-    <row r="125" spans="1:5" ht="32.75" hidden="1">
+    <row r="125" spans="1:5" ht="33" hidden="1">
       <c r="A125" s="30" t="s">
         <v>249</v>
       </c>
@@ -11020,7 +11176,7 @@
       </c>
       <c r="E125" s="26"/>
     </row>
-    <row r="126" spans="1:5" ht="32.75" hidden="1">
+    <row r="126" spans="1:5" ht="33" hidden="1">
       <c r="A126" s="30" t="s">
         <v>249</v>
       </c>
@@ -11035,7 +11191,7 @@
       </c>
       <c r="E126" s="26"/>
     </row>
-    <row r="127" spans="1:5" ht="32.75" hidden="1">
+    <row r="127" spans="1:5" ht="33" hidden="1">
       <c r="A127" s="30" t="s">
         <v>249</v>
       </c>
@@ -11050,7 +11206,7 @@
       </c>
       <c r="E127" s="26"/>
     </row>
-    <row r="128" spans="1:5" ht="98.2" hidden="1">
+    <row r="128" spans="1:5" ht="99" hidden="1">
       <c r="A128" s="30" t="s">
         <v>249</v>
       </c>
@@ -11065,7 +11221,7 @@
       </c>
       <c r="E128" s="26"/>
     </row>
-    <row r="129" spans="1:5" ht="65.45" hidden="1">
+    <row r="129" spans="1:5" ht="66" hidden="1">
       <c r="A129" s="30" t="s">
         <v>249</v>
       </c>
@@ -11080,7 +11236,7 @@
       </c>
       <c r="E129" s="26"/>
     </row>
-    <row r="130" spans="1:5" ht="49.1" hidden="1">
+    <row r="130" spans="1:5" ht="49.5" hidden="1">
       <c r="A130" s="30" t="s">
         <v>249</v>
       </c>
@@ -11095,7 +11251,7 @@
       </c>
       <c r="E130" s="26"/>
     </row>
-    <row r="131" spans="1:5" ht="32.75" hidden="1">
+    <row r="131" spans="1:5" ht="33" hidden="1">
       <c r="A131" s="30" t="s">
         <v>249</v>
       </c>
@@ -11110,7 +11266,7 @@
       </c>
       <c r="E131" s="26"/>
     </row>
-    <row r="132" spans="1:5" ht="49.1" hidden="1">
+    <row r="132" spans="1:5" ht="49.5" hidden="1">
       <c r="A132" s="30" t="s">
         <v>249</v>
       </c>
@@ -11125,7 +11281,7 @@
       </c>
       <c r="E132" s="26"/>
     </row>
-    <row r="133" spans="1:5" ht="81.849999999999994" hidden="1">
+    <row r="133" spans="1:5" ht="82.5" hidden="1">
       <c r="A133" s="30" t="s">
         <v>249</v>
       </c>
@@ -11140,7 +11296,7 @@
       </c>
       <c r="E133" s="26"/>
     </row>
-    <row r="134" spans="1:5" ht="32.75" hidden="1">
+    <row r="134" spans="1:5" ht="33" hidden="1">
       <c r="A134" s="30" t="s">
         <v>249</v>
       </c>
@@ -11155,7 +11311,7 @@
       </c>
       <c r="E134" s="26"/>
     </row>
-    <row r="135" spans="1:5" ht="32.75" hidden="1">
+    <row r="135" spans="1:5" ht="33" hidden="1">
       <c r="A135" s="30" t="s">
         <v>249</v>
       </c>
@@ -11170,7 +11326,7 @@
       </c>
       <c r="E135" s="26"/>
     </row>
-    <row r="136" spans="1:5" ht="49.1" hidden="1">
+    <row r="136" spans="1:5" ht="33" hidden="1">
       <c r="A136" s="30" t="s">
         <v>249</v>
       </c>
@@ -11185,7 +11341,7 @@
       </c>
       <c r="E136" s="26"/>
     </row>
-    <row r="137" spans="1:5" ht="49.1" hidden="1">
+    <row r="137" spans="1:5" ht="49.5" hidden="1">
       <c r="A137" s="30" t="s">
         <v>249</v>
       </c>
@@ -11200,7 +11356,7 @@
       </c>
       <c r="E137" s="26"/>
     </row>
-    <row r="138" spans="1:5" ht="49.1" hidden="1">
+    <row r="138" spans="1:5" ht="49.5" hidden="1">
       <c r="A138" s="30" t="s">
         <v>249</v>
       </c>
@@ -11215,7 +11371,7 @@
       </c>
       <c r="E138" s="26"/>
     </row>
-    <row r="139" spans="1:5" ht="65.45" hidden="1">
+    <row r="139" spans="1:5" ht="66" hidden="1">
       <c r="A139" s="30" t="s">
         <v>249</v>
       </c>
@@ -11230,7 +11386,7 @@
       </c>
       <c r="E139" s="26"/>
     </row>
-    <row r="140" spans="1:5" ht="65.45" hidden="1">
+    <row r="140" spans="1:5" ht="66" hidden="1">
       <c r="A140" s="30" t="s">
         <v>249</v>
       </c>
@@ -11245,7 +11401,7 @@
       </c>
       <c r="E140" s="26"/>
     </row>
-    <row r="141" spans="1:5" ht="114.55" hidden="1">
+    <row r="141" spans="1:5" ht="99" hidden="1">
       <c r="A141" s="30" t="s">
         <v>249</v>
       </c>
@@ -11260,7 +11416,7 @@
       </c>
       <c r="E141" s="26"/>
     </row>
-    <row r="142" spans="1:5" ht="49.1" hidden="1">
+    <row r="142" spans="1:5" ht="33" hidden="1">
       <c r="A142" s="30" t="s">
         <v>249</v>
       </c>
@@ -11275,7 +11431,7 @@
       </c>
       <c r="E142" s="26"/>
     </row>
-    <row r="143" spans="1:5" ht="49.1" hidden="1">
+    <row r="143" spans="1:5" ht="33" hidden="1">
       <c r="A143" s="30" t="s">
         <v>249</v>
       </c>
@@ -11290,7 +11446,7 @@
       </c>
       <c r="E143" s="26"/>
     </row>
-    <row r="144" spans="1:5" ht="32.75" hidden="1">
+    <row r="144" spans="1:5" ht="33" hidden="1">
       <c r="A144" s="30" t="s">
         <v>249</v>
       </c>
@@ -11305,7 +11461,7 @@
       </c>
       <c r="E144" s="26"/>
     </row>
-    <row r="145" spans="1:5" ht="49.1" hidden="1">
+    <row r="145" spans="1:5" ht="49.5" hidden="1">
       <c r="A145" s="30" t="s">
         <v>249</v>
       </c>
@@ -11320,7 +11476,7 @@
       </c>
       <c r="E145" s="26"/>
     </row>
-    <row r="146" spans="1:5" ht="49.1" hidden="1">
+    <row r="146" spans="1:5" ht="49.5" hidden="1">
       <c r="A146" s="30" t="s">
         <v>249</v>
       </c>
@@ -11335,7 +11491,7 @@
       </c>
       <c r="E146" s="26"/>
     </row>
-    <row r="147" spans="1:5" ht="32.75" hidden="1">
+    <row r="147" spans="1:5" ht="33" hidden="1">
       <c r="A147" s="30" t="s">
         <v>249</v>
       </c>
@@ -11350,7 +11506,7 @@
       </c>
       <c r="E147" s="26"/>
     </row>
-    <row r="148" spans="1:5" ht="32.75" hidden="1">
+    <row r="148" spans="1:5" ht="33" hidden="1">
       <c r="A148" s="30" t="s">
         <v>249</v>
       </c>
@@ -11365,7 +11521,7 @@
       </c>
       <c r="E148" s="26"/>
     </row>
-    <row r="149" spans="1:5" ht="32.75" hidden="1">
+    <row r="149" spans="1:5" ht="33" hidden="1">
       <c r="A149" s="30" t="s">
         <v>249</v>
       </c>
@@ -11380,7 +11536,7 @@
       </c>
       <c r="E149" s="26"/>
     </row>
-    <row r="150" spans="1:5" ht="32.75" hidden="1">
+    <row r="150" spans="1:5" ht="33" hidden="1">
       <c r="A150" s="30" t="s">
         <v>249</v>
       </c>
@@ -11395,7 +11551,7 @@
       </c>
       <c r="E150" s="26"/>
     </row>
-    <row r="151" spans="1:5" ht="49.1" hidden="1">
+    <row r="151" spans="1:5" ht="49.5" hidden="1">
       <c r="A151" s="30" t="s">
         <v>249</v>
       </c>
@@ -11410,7 +11566,7 @@
       </c>
       <c r="E151" s="26"/>
     </row>
-    <row r="152" spans="1:5" ht="65.45" hidden="1">
+    <row r="152" spans="1:5" ht="66" hidden="1">
       <c r="A152" s="30" t="s">
         <v>249</v>
       </c>
@@ -11425,7 +11581,7 @@
       </c>
       <c r="E152" s="26"/>
     </row>
-    <row r="153" spans="1:5" ht="65.45" hidden="1">
+    <row r="153" spans="1:5" ht="66" hidden="1">
       <c r="A153" s="30" t="s">
         <v>249</v>
       </c>
@@ -11440,7 +11596,7 @@
       </c>
       <c r="E153" s="26"/>
     </row>
-    <row r="154" spans="1:5" ht="49.1" hidden="1">
+    <row r="154" spans="1:5" ht="49.5" hidden="1">
       <c r="A154" s="30" t="s">
         <v>249</v>
       </c>
@@ -11455,7 +11611,7 @@
       </c>
       <c r="E154" s="26"/>
     </row>
-    <row r="155" spans="1:5" ht="65.45" hidden="1">
+    <row r="155" spans="1:5" ht="66" hidden="1">
       <c r="A155" s="30" t="s">
         <v>249</v>
       </c>
@@ -11470,7 +11626,7 @@
       </c>
       <c r="E155" s="26"/>
     </row>
-    <row r="156" spans="1:5" ht="65.45" hidden="1">
+    <row r="156" spans="1:5" ht="66" hidden="1">
       <c r="A156" s="30" t="s">
         <v>249</v>
       </c>
@@ -11485,7 +11641,7 @@
       </c>
       <c r="E156" s="26"/>
     </row>
-    <row r="157" spans="1:5" ht="65.45" hidden="1">
+    <row r="157" spans="1:5" ht="66" hidden="1">
       <c r="A157" s="30" t="s">
         <v>249</v>
       </c>
@@ -11500,7 +11656,7 @@
       </c>
       <c r="E157" s="26"/>
     </row>
-    <row r="158" spans="1:5" ht="65.45" hidden="1">
+    <row r="158" spans="1:5" ht="66" hidden="1">
       <c r="A158" s="30" t="s">
         <v>249</v>
       </c>
@@ -11515,7 +11671,7 @@
       </c>
       <c r="E158" s="26"/>
     </row>
-    <row r="159" spans="1:5" ht="130.94999999999999" hidden="1">
+    <row r="159" spans="1:5" ht="132" hidden="1">
       <c r="A159" s="30" t="s">
         <v>249</v>
       </c>
@@ -11530,7 +11686,7 @@
       </c>
       <c r="E159" s="26"/>
     </row>
-    <row r="160" spans="1:5" ht="65.45" hidden="1">
+    <row r="160" spans="1:5" ht="66" hidden="1">
       <c r="A160" s="30" t="s">
         <v>249</v>
       </c>
@@ -11545,7 +11701,7 @@
       </c>
       <c r="E160" s="26"/>
     </row>
-    <row r="161" spans="1:5" ht="32.75" hidden="1">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="30" t="s">
         <v>250</v>
       </c>
@@ -11560,7 +11716,7 @@
       </c>
       <c r="E161" s="26"/>
     </row>
-    <row r="162" spans="1:5" ht="32.75" hidden="1">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="30" t="s">
         <v>250</v>
       </c>
@@ -11575,7 +11731,7 @@
       </c>
       <c r="E162" s="26"/>
     </row>
-    <row r="163" spans="1:5" ht="32.75" hidden="1">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="30" t="s">
         <v>250</v>
       </c>
@@ -11590,7 +11746,7 @@
       </c>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:5" ht="32.75" hidden="1">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="30" t="s">
         <v>250</v>
       </c>
@@ -11605,7 +11761,7 @@
       </c>
       <c r="E164" s="26"/>
     </row>
-    <row r="165" spans="1:5" ht="32.75" hidden="1">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="30" t="s">
         <v>250</v>
       </c>
@@ -11620,7 +11776,7 @@
       </c>
       <c r="E165" s="26"/>
     </row>
-    <row r="166" spans="1:5" ht="32.75" hidden="1">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="30" t="s">
         <v>250</v>
       </c>
@@ -11635,7 +11791,7 @@
       </c>
       <c r="E166" s="26"/>
     </row>
-    <row r="167" spans="1:5" ht="32.75" hidden="1">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="30" t="s">
         <v>250</v>
       </c>
@@ -11650,7 +11806,7 @@
       </c>
       <c r="E167" s="26"/>
     </row>
-    <row r="168" spans="1:5" ht="32.75" hidden="1">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="30" t="s">
         <v>250</v>
       </c>
@@ -11665,7 +11821,7 @@
       </c>
       <c r="E168" s="26"/>
     </row>
-    <row r="169" spans="1:5" ht="32.75" hidden="1">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="30" t="s">
         <v>250</v>
       </c>
@@ -11680,7 +11836,7 @@
       </c>
       <c r="E169" s="26"/>
     </row>
-    <row r="170" spans="1:5" ht="32.75" hidden="1">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="30" t="s">
         <v>250</v>
       </c>
@@ -11695,7 +11851,7 @@
       </c>
       <c r="E170" s="26"/>
     </row>
-    <row r="171" spans="1:5" ht="32.75" hidden="1">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="30" t="s">
         <v>250</v>
       </c>
@@ -11710,7 +11866,7 @@
       </c>
       <c r="E171" s="26"/>
     </row>
-    <row r="172" spans="1:5" ht="32.75" hidden="1">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="30" t="s">
         <v>250</v>
       </c>
@@ -11725,7 +11881,7 @@
       </c>
       <c r="E172" s="26"/>
     </row>
-    <row r="173" spans="1:5" ht="32.75" hidden="1">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="30" t="s">
         <v>250</v>
       </c>
@@ -11797,7 +11953,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="136" customWidth="1"/>
@@ -11821,7 +11977,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="123" t="s">
         <v>344</v>
       </c>
@@ -11838,7 +11994,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="127"/>
       <c r="B3" s="124" t="s">
         <v>311</v>
@@ -11870,7 +12026,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="128"/>
       <c r="B5" s="129" t="s">
         <v>338</v>
@@ -11885,7 +12041,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="128"/>
       <c r="B6" s="130"/>
       <c r="C6" s="125">
@@ -11898,7 +12054,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="128"/>
       <c r="B7" s="130"/>
       <c r="C7" s="125">
@@ -11911,7 +12067,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="128"/>
       <c r="B8" s="131"/>
       <c r="C8" s="125">
@@ -11924,7 +12080,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="128"/>
       <c r="B9" s="129" t="s">
         <v>339</v>
@@ -11939,7 +12095,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="128"/>
       <c r="B10" s="130"/>
       <c r="C10" s="125">
@@ -11952,7 +12108,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="128"/>
       <c r="B11" s="130"/>
       <c r="C11" s="125">
@@ -11965,7 +12121,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="128"/>
       <c r="B12" s="130"/>
       <c r="C12" s="125">
@@ -11978,7 +12134,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="128"/>
       <c r="B13" s="131"/>
       <c r="C13" s="125">
@@ -11991,7 +12147,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="128"/>
       <c r="B14" s="129" t="s">
         <v>349</v>
@@ -12006,7 +12162,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="128"/>
       <c r="B15" s="130"/>
       <c r="C15" s="125">
@@ -12019,7 +12175,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="128"/>
       <c r="B16" s="130"/>
       <c r="C16" s="125">
@@ -12032,7 +12188,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="128"/>
       <c r="B17" s="133"/>
       <c r="C17" s="125">
@@ -12045,7 +12201,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="128"/>
       <c r="B18" s="134"/>
       <c r="C18" s="125">
@@ -12058,7 +12214,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="128"/>
       <c r="B19" s="129" t="s">
         <v>340</v>
@@ -12073,7 +12229,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="128"/>
       <c r="B20" s="130"/>
       <c r="C20" s="125">
@@ -12086,7 +12242,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="131"/>
       <c r="C21" s="125">
@@ -12099,7 +12255,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129" t="s">
         <v>323</v>
@@ -12114,7 +12270,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="134"/>
       <c r="C23" s="125">
@@ -12127,7 +12283,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="124" t="s">
         <v>324</v>
@@ -12142,7 +12298,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="135"/>
       <c r="B25" s="124" t="s">
         <v>326</v>
@@ -12157,7 +12313,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="123" t="s">
         <v>327</v>
       </c>
@@ -12174,7 +12330,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="135"/>
       <c r="B27" s="132" t="s">
         <v>329</v>

--- a/APF/QA/RA006/QAP001_APF_RA006_APF0504_Tab逾時閃爍機制.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0504_Tab逾時閃爍機制.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\QA\RA006\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="2"/>
   </bookViews>
@@ -29,7 +24,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,7 +35,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1" shapeId="0">
+    <comment ref="Q6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="415">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2440,8 +2435,12 @@
     <t>強化</t>
   </si>
   <si>
-    <t>SA PM-2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <t>陳懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>懿信、傳勝、鈺杰、慕霖</t>
@@ -2452,6 +2451,10 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>SA PM-2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>3</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2464,32 +2467,37 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>4</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>IPO流程圖，應加入session refresh的作業流程</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>如左列所示</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計</t>
+  </si>
+  <si>
     <t>5</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>IPO流程圖，應加入session refresh的作業流程</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能設計</t>
-  </si>
-  <si>
-    <t>考慮不足</t>
-  </si>
-  <si>
-    <t>如左列所示</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>各模組Session timeout後，須另外處理，否則timeout後預設會導到登入頁</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>於備註說明，各模組自行設定session timeout處理頁，並在routing table註冊為預設顯示頁面</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>6</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -2499,10 +2507,6 @@
   </si>
   <si>
     <t>修改5.3功能簡述的說明，改為點選相同模組的功能清單，才會重置timer</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>於備註說明，各模組自行設定session timeout處理頁，並在routing table註冊為預設顯示頁面</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -3982,13 +3986,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4088,7 +4092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4123,7 +4127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4602,7 +4606,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4735,7 +4739,7 @@
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>16.333333333333329</v>
+        <v>4.3333333333333286</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
@@ -4891,13 +4895,13 @@
         <v>379</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E8" s="66">
         <v>41603</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G8" s="66">
         <v>41600</v>
@@ -4906,20 +4910,20 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="I8" s="67">
-        <v>0.72916666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="J8" s="65">
         <v>4</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L8" s="69" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M8" s="70">
         <f>IF(C8="","",J8*(I8-H8)*24)</f>
-        <v>15.333333333333332</v>
+        <v>3.3333333333333321</v>
       </c>
       <c r="N8" s="63">
         <f>IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
@@ -5877,10 +5881,10 @@
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6063,28 +6067,26 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="63" customHeight="1">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="33">
       <c r="A5" s="40" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>395</v>
-      </c>
+      <c r="G5" s="44"/>
       <c r="H5" s="91">
         <v>41603</v>
       </c>
@@ -6110,28 +6112,26 @@
     </row>
     <row r="6" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A6" s="40" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>407</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>405</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="G6" s="44"/>
       <c r="H6" s="91">
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="I6" s="91"/>
       <c r="J6" s="89" t="str">
@@ -6153,26 +6153,24 @@
     </row>
     <row r="7" spans="1:18" s="23" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>406</v>
-      </c>
+      <c r="G7" s="44"/>
       <c r="H7" s="91">
         <v>41603</v>
       </c>
@@ -6196,28 +6194,26 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" ht="54" customHeight="1">
+    <row r="8" spans="1:18" s="23" customFormat="1" ht="49.5">
       <c r="A8" s="40" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>394</v>
-      </c>
+      <c r="G8" s="44"/>
       <c r="H8" s="91">
         <v>41603</v>
       </c>
